--- a/console/Networking/agExcel/components/selectTemplate.xlsx
+++ b/console/Networking/agExcel/components/selectTemplate.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/agExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D509318F-5C09-0C4B-8E92-FB566237714E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="1520" yWindow="6860" windowWidth="20740" windowHeight="10740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -139,23 +145,27 @@
     <t>Please select the instance template</t>
   </si>
   <si>
-    <t>No available instance template in current region, please create instance template</t>
-  </si>
-  <si>
-    <t>Create new instance template</t>
-  </si>
-  <si>
-    <t>Only the instance templates configured with the specification of the Generation II Virtual Machines support creation of Availability Groups</t>
-  </si>
-  <si>
-    <t>Only the instance template configured with the specification of Generation II Virtual Machines support the replacement</t>
+    <t>Create a new instance template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only the instance templates configured with the 2rd generation of instance type support for creating  Availability Groups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Only the instance template configured with the 2rd generation instance type support the replacement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No available instance template in the current region, please create an instance template</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -544,22 +554,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="24.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +580,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="38">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -578,10 +588,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="34">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -589,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="57">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -600,10 +610,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="38">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -611,7 +621,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
